--- a/data/Distributors.xlsx
+++ b/data/Distributors.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="674">
   <si>
     <t>STT</t>
   </si>
@@ -66,12 +66,204 @@
     <t>Dưa lưới</t>
   </si>
   <si>
+    <t>06/12/2025 09:57:18</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ BÍCH VÂN</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:57:46</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:56:47</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:57:16</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:56:13</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:56:45</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:55:42</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:56:11</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:55:10</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:55:40</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:54:08</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:54:45</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:53:26</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:53:49</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:52:42</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:53:15</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:52:13</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:52:39</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:51:38</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:52:09</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:50:47</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:51:26</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:50:15</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:50:45</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:49:34</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:50:13</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:48:54</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:49:21</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:48:14</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:48:43</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:47:33</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:48:07</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:46:43</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:47:12</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:46:07</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:46:36</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:45:40</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:46:04</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:44:52</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:45:23</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:44:20</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:44:50</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:43:39</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:44:18</t>
+  </si>
+  <si>
+    <t>Phân Phối Sản phẩm nhập khẩu</t>
+  </si>
+  <si>
+    <t>Sản phẩm nhập khẩu</t>
+  </si>
+  <si>
+    <t>Nấm đùi gà</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:34:15</t>
+  </si>
+  <si>
+    <t>ĐẶNG THỊ THÙY DƯƠNG</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:34:33</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:33:43</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:34:12</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:33:14</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:33:35</t>
+  </si>
+  <si>
+    <t>Nấm kim châm</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:32:27</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:33:09</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:30:59</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:31:50</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:30:17</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:30:54</t>
+  </si>
+  <si>
+    <t>05/12/2025 23:37:30</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ KIM LOAN</t>
+  </si>
+  <si>
+    <t>05/12/2025 23:39:46</t>
+  </si>
+  <si>
     <t>05/12/2025 09:28:28</t>
   </si>
   <si>
-    <t>NGUYỄN THỊ BÍCH VÂN</t>
-  </si>
-  <si>
     <t>05/12/2025 09:29:26</t>
   </si>
   <si>
@@ -228,21 +420,9 @@
     <t>05/12/2025 05:53:52</t>
   </si>
   <si>
-    <t>Phân Phối Sản phẩm nhập khẩu</t>
-  </si>
-  <si>
-    <t>Sản phẩm nhập khẩu</t>
-  </si>
-  <si>
-    <t>Nấm kim châm</t>
-  </si>
-  <si>
     <t>05/12/2025 03:30:13</t>
   </si>
   <si>
-    <t>ĐẶNG THỊ THÙY DƯƠNG</t>
-  </si>
-  <si>
     <t>05/12/2025 03:30:54</t>
   </si>
   <si>
@@ -252,9 +432,6 @@
     <t>05/12/2025 03:30:09</t>
   </si>
   <si>
-    <t>Nấm đùi gà</t>
-  </si>
-  <si>
     <t>05/12/2025 03:28:44</t>
   </si>
   <si>
@@ -670,9 +847,6 @@
   </si>
   <si>
     <t>02/12/2025 19:39:25</t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ KIM LOAN</t>
   </si>
   <si>
     <t>02/12/2025 19:42:44</t>
@@ -2273,7 +2447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC4A16B-8FA1-4B04-953E-5E0AA1B9EFD4}">
-  <dimension ref="A1:G291"/>
+  <dimension ref="A1:G320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -2487,13 +2661,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -2510,13 +2684,13 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -2533,13 +2707,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -2556,13 +2730,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2579,13 +2753,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2602,13 +2776,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2625,13 +2799,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -2648,13 +2822,13 @@
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2671,13 +2845,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -2694,13 +2868,13 @@
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -2717,13 +2891,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -2740,13 +2914,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -2763,13 +2937,13 @@
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -2786,13 +2960,13 @@
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -2809,13 +2983,13 @@
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
@@ -2823,22 +2997,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -2846,22 +3020,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -2869,22 +3043,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
@@ -2892,22 +3066,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -2915,19 +3089,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>69</v>
@@ -2938,19 +3112,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>71</v>
@@ -2961,19 +3135,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>74</v>
@@ -2984,19 +3158,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>76</v>
@@ -3007,22 +3181,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -3036,16 +3210,16 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -3062,13 +3236,13 @@
         <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -3085,13 +3259,13 @@
         <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
@@ -3108,13 +3282,13 @@
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -3131,13 +3305,13 @@
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -3154,13 +3328,13 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
@@ -3177,13 +3351,13 @@
         <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
@@ -3200,13 +3374,13 @@
         <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
@@ -3223,13 +3397,13 @@
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
@@ -3246,13 +3420,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
@@ -3269,13 +3443,13 @@
         <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -3292,13 +3466,13 @@
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -3315,13 +3489,13 @@
         <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -3338,13 +3512,13 @@
         <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -3361,13 +3535,13 @@
         <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
@@ -3384,13 +3558,13 @@
         <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
@@ -3407,13 +3581,13 @@
         <v>9</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
@@ -3430,13 +3604,13 @@
         <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
@@ -3453,13 +3627,13 @@
         <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52">
@@ -3476,13 +3650,13 @@
         <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53">
@@ -3496,16 +3670,16 @@
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="54">
@@ -3513,22 +3687,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="55">
@@ -3536,22 +3710,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="56">
@@ -3565,16 +3739,16 @@
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -3582,22 +3756,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58">
@@ -3605,22 +3779,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59">
@@ -3628,22 +3802,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -3651,22 +3825,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -3674,22 +3848,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -3703,16 +3877,16 @@
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63">
@@ -3729,13 +3903,13 @@
         <v>9</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64">
@@ -3752,13 +3926,13 @@
         <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65">
@@ -3775,13 +3949,13 @@
         <v>9</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66">
@@ -3795,16 +3969,16 @@
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
@@ -3821,13 +3995,13 @@
         <v>9</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68">
@@ -3844,13 +4018,13 @@
         <v>9</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69">
@@ -3867,13 +4041,13 @@
         <v>9</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70">
@@ -3890,13 +4064,13 @@
         <v>9</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71">
@@ -3913,13 +4087,13 @@
         <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72">
@@ -3936,13 +4110,13 @@
         <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73">
@@ -3959,13 +4133,13 @@
         <v>9</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74">
@@ -3982,13 +4156,13 @@
         <v>9</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75">
@@ -4005,13 +4179,13 @@
         <v>9</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76">
@@ -4028,13 +4202,13 @@
         <v>9</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77">
@@ -4051,13 +4225,13 @@
         <v>9</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78">
@@ -4074,13 +4248,13 @@
         <v>9</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79">
@@ -4097,13 +4271,13 @@
         <v>9</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80">
@@ -4120,13 +4294,13 @@
         <v>9</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81">
@@ -4140,16 +4314,16 @@
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82">
@@ -4157,22 +4331,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83">
@@ -4180,22 +4354,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="84">
@@ -4203,22 +4377,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="85">
@@ -4226,22 +4400,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86">
@@ -4249,22 +4423,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87">
@@ -4272,22 +4446,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
@@ -4295,22 +4469,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -4318,22 +4492,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
@@ -4350,13 +4524,13 @@
         <v>9</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91">
@@ -4373,13 +4547,13 @@
         <v>9</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92">
@@ -4396,13 +4570,13 @@
         <v>9</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93">
@@ -4419,13 +4593,13 @@
         <v>9</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94">
@@ -4442,13 +4616,13 @@
         <v>9</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
@@ -4462,16 +4636,16 @@
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
@@ -4479,19 +4653,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>213</v>
@@ -4640,19 +4814,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>226</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>227</v>
@@ -4663,19 +4837,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>229</v>
@@ -4686,19 +4860,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>231</v>
@@ -4715,13 +4889,13 @@
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>233</v>
@@ -4732,19 +4906,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>235</v>
@@ -4761,13 +4935,13 @@
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>237</v>
@@ -4778,19 +4952,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>239</v>
@@ -4807,13 +4981,13 @@
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>240</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>241</v>
@@ -4824,19 +4998,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>242</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>243</v>
@@ -4847,19 +5021,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>245</v>
@@ -4870,19 +5044,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>246</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>247</v>
@@ -4893,19 +5067,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>248</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>249</v>
@@ -4916,19 +5090,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>250</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>251</v>
@@ -5054,19 +5228,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>262</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>263</v>
@@ -5077,19 +5251,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>265</v>
@@ -5100,19 +5274,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>266</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>267</v>
@@ -5123,19 +5297,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>269</v>
@@ -5146,19 +5320,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>271</v>
@@ -5169,19 +5343,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>272</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>273</v>
@@ -5192,19 +5366,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>274</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>275</v>
@@ -5215,19 +5389,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>276</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>277</v>
@@ -5238,19 +5412,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>279</v>
@@ -5267,13 +5441,13 @@
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>281</v>
@@ -5284,19 +5458,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>283</v>
@@ -5307,19 +5481,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>284</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>285</v>
@@ -5330,19 +5504,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>287</v>
@@ -5353,19 +5527,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>289</v>
@@ -5382,13 +5556,13 @@
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>291</v>
@@ -5399,19 +5573,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>293</v>
@@ -5428,13 +5602,13 @@
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>295</v>
@@ -5445,19 +5619,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>297</v>
@@ -5474,13 +5648,13 @@
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>298</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>299</v>
@@ -5560,19 +5734,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>306</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>307</v>
@@ -5583,19 +5757,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>308</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>309</v>
@@ -5606,19 +5780,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>310</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>311</v>
@@ -5629,19 +5803,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>312</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>313</v>
@@ -5658,13 +5832,13 @@
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>314</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>315</v>
@@ -5681,13 +5855,13 @@
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>316</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>317</v>
@@ -5704,13 +5878,13 @@
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>319</v>
@@ -5721,19 +5895,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>321</v>
@@ -5744,19 +5918,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>322</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>323</v>
@@ -5767,19 +5941,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>324</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>325</v>
@@ -5790,19 +5964,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>326</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>327</v>
@@ -5813,19 +5987,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>328</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>329</v>
@@ -5836,19 +6010,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>330</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>331</v>
@@ -5859,19 +6033,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>332</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>333</v>
@@ -5882,19 +6056,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>334</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>335</v>
@@ -5905,19 +6079,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>336</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>337</v>
@@ -5934,13 +6108,13 @@
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>339</v>
@@ -5951,19 +6125,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>340</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>341</v>
@@ -5974,19 +6148,19 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>342</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>343</v>
@@ -5997,19 +6171,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>344</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>345</v>
@@ -6227,19 +6401,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>364</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>365</v>
@@ -6250,19 +6424,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>366</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>367</v>
@@ -6273,19 +6447,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>368</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>369</v>
@@ -6296,19 +6470,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>370</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>371</v>
@@ -6325,13 +6499,13 @@
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>372</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>373</v>
@@ -6348,13 +6522,13 @@
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>374</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>375</v>
@@ -6365,19 +6539,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>376</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>377</v>
@@ -6388,22 +6562,22 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="E179" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="F179" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="180">
@@ -6411,22 +6585,22 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E180" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="181">
@@ -6434,22 +6608,22 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C181" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="182">
@@ -6466,13 +6640,13 @@
         <v>9</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183">
@@ -6489,13 +6663,13 @@
         <v>9</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="184">
@@ -6512,13 +6686,13 @@
         <v>9</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="185">
@@ -6535,13 +6709,13 @@
         <v>9</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="186">
@@ -6558,13 +6732,13 @@
         <v>9</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187">
@@ -6581,13 +6755,13 @@
         <v>9</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188">
@@ -6604,13 +6778,13 @@
         <v>9</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="189">
@@ -6627,13 +6801,13 @@
         <v>9</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -6650,13 +6824,13 @@
         <v>9</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="191">
@@ -6673,13 +6847,13 @@
         <v>9</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="192">
@@ -6696,13 +6870,13 @@
         <v>9</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="193">
@@ -6719,13 +6893,13 @@
         <v>9</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="194">
@@ -6742,13 +6916,13 @@
         <v>9</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="195">
@@ -6765,13 +6939,13 @@
         <v>9</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="196">
@@ -6788,13 +6962,13 @@
         <v>9</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="197">
@@ -6811,13 +6985,13 @@
         <v>9</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="198">
@@ -6834,13 +7008,13 @@
         <v>9</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="199">
@@ -6857,13 +7031,13 @@
         <v>9</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="200">
@@ -6880,13 +7054,13 @@
         <v>9</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="201">
@@ -6903,13 +7077,13 @@
         <v>9</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="202">
@@ -6923,16 +7097,16 @@
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="203">
@@ -6940,22 +7114,22 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="204">
@@ -6963,22 +7137,22 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="205">
@@ -6992,16 +7166,16 @@
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>432</v>
+        <v>9</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="206">
@@ -7015,16 +7189,16 @@
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>382</v>
+        <v>190</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="207">
@@ -7032,22 +7206,22 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="208">
@@ -7055,22 +7229,22 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>9</v>
+        <v>436</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="209">
@@ -7084,16 +7258,16 @@
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E209" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="210">
@@ -7101,22 +7275,22 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="E210" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="211">
@@ -7133,13 +7307,13 @@
         <v>9</v>
       </c>
       <c r="E211" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="212">
@@ -7156,13 +7330,13 @@
         <v>9</v>
       </c>
       <c r="E212" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="213">
@@ -7179,13 +7353,13 @@
         <v>9</v>
       </c>
       <c r="E213" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="214">
@@ -7202,13 +7376,13 @@
         <v>9</v>
       </c>
       <c r="E214" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="215">
@@ -7225,13 +7399,13 @@
         <v>9</v>
       </c>
       <c r="E215" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="216">
@@ -7248,13 +7422,13 @@
         <v>9</v>
       </c>
       <c r="E216" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="217">
@@ -7268,16 +7442,16 @@
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="E217" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="218">
@@ -7285,22 +7459,22 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="E218" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G218" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="219">
@@ -7314,16 +7488,16 @@
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="E219" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="220">
@@ -7337,16 +7511,16 @@
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="221">
@@ -7360,16 +7534,16 @@
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>467</v>
+        <v>9</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>469</v>
+        <v>11</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="222">
@@ -7383,16 +7557,16 @@
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="223">
@@ -7406,16 +7580,16 @@
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="224">
@@ -7423,22 +7597,22 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="225">
@@ -7446,22 +7620,22 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="226">
@@ -7469,22 +7643,22 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E226" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="227">
@@ -7492,22 +7666,22 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>432</v>
+        <v>9</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="228">
@@ -7521,16 +7695,16 @@
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="229">
@@ -7544,16 +7718,16 @@
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="230">
@@ -7567,16 +7741,16 @@
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="231">
@@ -7590,16 +7764,16 @@
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="232">
@@ -7607,22 +7781,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="233">
@@ -7630,22 +7804,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>463</v>
+        <v>65</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>465</v>
+        <v>59</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="234">
@@ -7659,16 +7833,16 @@
         <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="235">
@@ -7682,16 +7856,16 @@
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>131</v>
+        <v>440</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="236">
@@ -7705,16 +7879,16 @@
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="237">
@@ -7728,16 +7902,16 @@
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="238">
@@ -7754,13 +7928,13 @@
         <v>9</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="239">
@@ -7768,22 +7942,22 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="240">
@@ -7797,16 +7971,16 @@
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>467</v>
+        <v>9</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>469</v>
+        <v>11</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="241">
@@ -7820,16 +7994,16 @@
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="242">
@@ -7837,22 +8011,22 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="243">
@@ -7866,16 +8040,16 @@
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="244">
@@ -7892,13 +8066,13 @@
         <v>9</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="245">
@@ -7912,16 +8086,16 @@
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>378</v>
+        <v>9</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="246">
@@ -7929,22 +8103,22 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="247">
@@ -7952,22 +8126,22 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="248">
@@ -7975,22 +8149,22 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>522</v>
+        <v>190</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="249">
@@ -7998,22 +8172,22 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>123</v>
+        <v>521</v>
       </c>
       <c r="E249" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="250">
@@ -8021,22 +8195,22 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>66</v>
+        <v>525</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>526</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>382</v>
+        <v>527</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="251">
@@ -8044,22 +8218,22 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E251" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="252">
@@ -8073,16 +8247,16 @@
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>530</v>
+        <v>65</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>531</v>
       </c>
       <c r="F252" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="253">
@@ -8090,22 +8264,22 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C253" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E253" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="254">
@@ -8113,22 +8287,22 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>530</v>
+        <v>65</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>532</v>
+        <v>440</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="255">
@@ -8136,22 +8310,22 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256">
@@ -8159,22 +8333,22 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>66</v>
+        <v>490</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="257">
@@ -8182,22 +8356,22 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E257" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="258">
@@ -8205,22 +8379,22 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E258" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="259">
@@ -8234,16 +8408,16 @@
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="260">
@@ -8257,16 +8431,16 @@
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="261">
@@ -8280,16 +8454,16 @@
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="262">
@@ -8303,16 +8477,16 @@
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>66</v>
+        <v>521</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>382</v>
+        <v>523</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="263">
@@ -8326,16 +8500,16 @@
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>66</v>
+        <v>521</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>382</v>
+        <v>523</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="264">
@@ -8349,16 +8523,16 @@
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>382</v>
+        <v>190</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="265">
@@ -8372,16 +8546,16 @@
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>382</v>
+        <v>190</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="266">
@@ -8395,16 +8569,16 @@
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>560</v>
+        <v>188</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>562</v>
+        <v>190</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="267">
@@ -8418,16 +8592,16 @@
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="268">
@@ -8435,22 +8609,22 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>560</v>
+        <v>136</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F268" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G268" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="269">
@@ -8464,16 +8638,16 @@
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="270">
@@ -8487,16 +8661,16 @@
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>378</v>
+        <v>521</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="271">
@@ -8504,22 +8678,22 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>522</v>
+        <v>184</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="272">
@@ -8533,16 +8707,16 @@
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>568</v>
+        <v>188</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>562</v>
+        <v>190</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="273">
@@ -8556,16 +8730,16 @@
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>568</v>
+        <v>9</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>562</v>
+        <v>11</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="274">
@@ -8579,16 +8753,16 @@
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>568</v>
+        <v>436</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>562</v>
+        <v>138</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="275">
@@ -8596,22 +8770,22 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>522</v>
+        <v>138</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="276">
@@ -8625,16 +8799,16 @@
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>522</v>
+        <v>73</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="277">
@@ -8642,22 +8816,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278">
@@ -8665,22 +8839,22 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>522</v>
+        <v>184</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="279">
@@ -8688,22 +8862,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>568</v>
+        <v>65</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>562</v>
+        <v>440</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="280">
@@ -8711,22 +8885,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>522</v>
+        <v>440</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="281">
@@ -8734,22 +8908,22 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="282">
@@ -8757,22 +8931,22 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>522</v>
+        <v>184</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="283">
@@ -8780,22 +8954,22 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>378</v>
+        <v>588</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="284">
@@ -8809,16 +8983,16 @@
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>522</v>
+        <v>440</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="285">
@@ -8826,22 +9000,22 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>378</v>
+        <v>65</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>602</v>
+        <v>440</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="286">
@@ -8849,22 +9023,22 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>602</v>
+        <v>440</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="287">
@@ -8872,22 +9046,22 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>592</v>
+        <v>65</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>522</v>
+        <v>440</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="288">
@@ -8895,22 +9069,22 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D288" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E288" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>522</v>
+        <v>440</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="289">
@@ -8924,16 +9098,16 @@
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>568</v>
+        <v>65</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>562</v>
+        <v>440</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="290">
@@ -8947,16 +9121,16 @@
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>568</v>
+        <v>65</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>562</v>
+        <v>440</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="291">
@@ -8970,16 +9144,683 @@
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>568</v>
+        <v>65</v>
       </c>
       <c r="E291" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>291</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>292</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="F291" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G291" s="2" t="s">
+      <c r="F293" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G293" s="2" t="s">
         <v>615</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>293</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>294</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>295</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>296</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>297</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>298</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>299</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>300</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>301</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>302</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>303</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>304</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>305</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>306</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>307</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>308</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>309</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>310</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>311</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>312</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>313</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>314</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>315</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>316</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>317</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>318</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>319</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/data/Distributors.xlsx
+++ b/data/Distributors.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="718">
   <si>
     <t>STT</t>
   </si>
@@ -66,12 +66,150 @@
     <t>Dưa lưới</t>
   </si>
   <si>
+    <t>07/12/2025 09:06:45</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ BÍCH VÂN</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:07:08</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:06:21</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:06:43</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:05:34</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:06:08</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:05:11</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:05:31</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:04:46</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:05:09</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:04:19</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:04:43</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:03:36</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:04:09</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:02:57</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:03:29</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:02:24</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:02:54</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:01:43</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:02:18</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:01:04</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:01:30</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:00:26</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:01:00</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:59:30</t>
+  </si>
+  <si>
+    <t>07/12/2025 09:00:06</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:59:01</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:59:27</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:58:22</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:58:57</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:57:42</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:58:11</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:56:57</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:57:33</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:56:27</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:56:54</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:55:49</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:56:23</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:55:12</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:55:45</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:54:16</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:55:09</t>
+  </si>
+  <si>
+    <t>Xoài Cát</t>
+  </si>
+  <si>
+    <t>07/12/2025 06:18:19</t>
+  </si>
+  <si>
+    <t>TĂNG CẨM HẰNG</t>
+  </si>
+  <si>
+    <t>07/12/2025 06:19:27</t>
+  </si>
+  <si>
     <t>06/12/2025 09:57:18</t>
   </si>
   <si>
-    <t>NGUYỄN THỊ BÍCH VÂN</t>
-  </si>
-  <si>
     <t>06/12/2025 09:57:46</t>
   </si>
   <si>
@@ -600,13 +738,7 @@
     <t>04/12/2025 05:50:34</t>
   </si>
   <si>
-    <t>Xoài Cát</t>
-  </si>
-  <si>
     <t>04/12/2025 05:37:54</t>
-  </si>
-  <si>
-    <t>TĂNG CẨM HẰNG</t>
   </si>
   <si>
     <t>04/12/2025 05:39:33</t>
@@ -2447,7 +2579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC4A16B-8FA1-4B04-953E-5E0AA1B9EFD4}">
-  <dimension ref="A1:G320"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -2980,16 +3112,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
@@ -2997,22 +3129,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -3020,22 +3152,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -3043,22 +3175,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
@@ -3066,22 +3198,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -3089,22 +3221,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -3112,22 +3244,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
@@ -3135,22 +3267,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -3167,13 +3299,13 @@
         <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -3190,13 +3322,13 @@
         <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
@@ -3213,13 +3345,13 @@
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -3236,13 +3368,13 @@
         <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -3259,13 +3391,13 @@
         <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -3282,13 +3414,13 @@
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -3305,13 +3437,13 @@
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
@@ -3328,13 +3460,13 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
@@ -3351,13 +3483,13 @@
         <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
@@ -3374,13 +3506,13 @@
         <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
@@ -3397,13 +3529,13 @@
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
@@ -3420,13 +3552,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
@@ -3443,13 +3575,13 @@
         <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
@@ -3466,13 +3598,13 @@
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45">
@@ -3489,13 +3621,13 @@
         <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
@@ -3503,22 +3635,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
@@ -3526,22 +3658,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
@@ -3549,22 +3681,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
@@ -3572,22 +3704,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50">
@@ -3595,22 +3727,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51">
@@ -3618,22 +3750,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52">
@@ -3641,22 +3773,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -3670,16 +3802,16 @@
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
@@ -3693,16 +3825,16 @@
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -3716,16 +3848,16 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -3739,16 +3871,16 @@
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -3756,22 +3888,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58">
@@ -3779,22 +3911,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
@@ -3802,22 +3934,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
@@ -3825,19 +3957,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>135</v>
@@ -3848,22 +3980,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -3877,16 +4009,16 @@
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63">
@@ -3903,13 +4035,13 @@
         <v>9</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -3926,13 +4058,13 @@
         <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65">
@@ -3949,13 +4081,13 @@
         <v>9</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66">
@@ -3972,13 +4104,13 @@
         <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67">
@@ -3995,13 +4127,13 @@
         <v>9</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68">
@@ -4018,13 +4150,13 @@
         <v>9</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
@@ -4041,13 +4173,13 @@
         <v>9</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70">
@@ -4064,13 +4196,13 @@
         <v>9</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71">
@@ -4087,13 +4219,13 @@
         <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72">
@@ -4110,13 +4242,13 @@
         <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73">
@@ -4133,13 +4265,13 @@
         <v>9</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74">
@@ -4156,13 +4288,13 @@
         <v>9</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75">
@@ -4176,13 +4308,13 @@
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>167</v>
@@ -4199,13 +4331,13 @@
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>169</v>
@@ -4222,13 +4354,13 @@
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>171</v>
@@ -4245,13 +4377,13 @@
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>173</v>
@@ -4262,19 +4394,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>175</v>
@@ -4285,19 +4417,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>177</v>
@@ -4308,19 +4440,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>179</v>
@@ -4331,19 +4463,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>181</v>
@@ -4354,10 +4486,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>182</v>
@@ -4377,19 +4509,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>187</v>
@@ -4406,16 +4538,16 @@
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="86">
@@ -4423,22 +4555,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87">
@@ -4446,22 +4578,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88">
@@ -4469,22 +4601,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89">
@@ -4492,22 +4624,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -4524,13 +4656,13 @@
         <v>9</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91">
@@ -4547,13 +4679,13 @@
         <v>9</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92">
@@ -4570,13 +4702,13 @@
         <v>9</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
@@ -4593,13 +4725,13 @@
         <v>9</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
@@ -4616,13 +4748,13 @@
         <v>9</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95">
@@ -4636,16 +4768,16 @@
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
@@ -4662,13 +4794,13 @@
         <v>9</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97">
@@ -4685,13 +4817,13 @@
         <v>9</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98">
@@ -4708,13 +4840,13 @@
         <v>9</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99">
@@ -4731,13 +4863,13 @@
         <v>9</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100">
@@ -4754,13 +4886,13 @@
         <v>9</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101">
@@ -4777,13 +4909,13 @@
         <v>9</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102">
@@ -4800,13 +4932,13 @@
         <v>9</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103">
@@ -4823,13 +4955,13 @@
         <v>9</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104">
@@ -4846,13 +4978,13 @@
         <v>9</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105">
@@ -4860,19 +4992,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>231</v>
@@ -4883,19 +5015,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>233</v>
@@ -4912,13 +5044,13 @@
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>235</v>
@@ -4929,19 +5061,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>237</v>
@@ -4952,19 +5084,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>239</v>
@@ -4975,19 +5107,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>240</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>241</v>
@@ -4998,19 +5130,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>242</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>243</v>
@@ -5021,19 +5153,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>245</v>
@@ -5044,19 +5176,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>246</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>247</v>
@@ -5067,19 +5199,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>248</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>249</v>
@@ -5090,19 +5222,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>250</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>251</v>
@@ -5142,13 +5274,13 @@
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>254</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>255</v>
@@ -5320,19 +5452,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>271</v>
@@ -5481,19 +5613,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>284</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>285</v>
@@ -5504,19 +5636,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>287</v>
@@ -5527,19 +5659,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>289</v>
@@ -5550,19 +5682,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>291</v>
@@ -5573,19 +5705,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>293</v>
@@ -5596,19 +5728,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>295</v>
@@ -5619,19 +5751,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>297</v>
@@ -5648,13 +5780,13 @@
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>298</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>299</v>
@@ -5826,19 +5958,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>314</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>315</v>
@@ -5895,19 +6027,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>321</v>
@@ -5918,19 +6050,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>322</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>323</v>
@@ -5941,19 +6073,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>324</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>325</v>
@@ -5964,19 +6096,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>326</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>327</v>
@@ -5987,19 +6119,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>328</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>329</v>
@@ -6010,19 +6142,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>330</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>331</v>
@@ -6033,19 +6165,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>332</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>333</v>
@@ -6056,19 +6188,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>334</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>335</v>
@@ -6079,19 +6211,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>336</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>337</v>
@@ -6108,13 +6240,13 @@
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>339</v>
@@ -6125,19 +6257,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>340</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>341</v>
@@ -6148,19 +6280,19 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>342</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>343</v>
@@ -6171,19 +6303,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>344</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>345</v>
@@ -6401,19 +6533,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>364</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>365</v>
@@ -6424,19 +6556,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>366</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>367</v>
@@ -6447,19 +6579,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>368</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>369</v>
@@ -6470,19 +6602,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>370</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>371</v>
@@ -6493,19 +6625,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>372</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>373</v>
@@ -6516,19 +6648,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>374</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>375</v>
@@ -6539,19 +6671,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>376</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>377</v>
@@ -6562,19 +6694,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>378</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>379</v>
@@ -6585,19 +6717,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>380</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>381</v>
@@ -6608,19 +6740,19 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>382</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>383</v>
@@ -6631,19 +6763,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>385</v>
@@ -6654,19 +6786,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>387</v>
@@ -6677,19 +6809,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>388</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>389</v>
@@ -6907,19 +7039,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>408</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>409</v>
@@ -6930,19 +7062,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>410</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>411</v>
@@ -6953,19 +7085,19 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>412</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>413</v>
@@ -6976,19 +7108,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>414</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>415</v>
@@ -7005,13 +7137,13 @@
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>416</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>417</v>
@@ -7028,13 +7160,13 @@
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>418</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>419</v>
@@ -7051,13 +7183,13 @@
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>420</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>421</v>
@@ -7068,19 +7200,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>422</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>423</v>
@@ -7091,19 +7223,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>424</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>425</v>
@@ -7114,19 +7246,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>426</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>427</v>
@@ -7189,13 +7321,13 @@
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>432</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>433</v>
@@ -7206,19 +7338,19 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>434</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>435</v>
@@ -7229,22 +7361,22 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="F208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="209">
@@ -7258,16 +7390,16 @@
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E209" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="210">
@@ -7275,22 +7407,22 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="211">
@@ -7307,13 +7439,13 @@
         <v>9</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="212">
@@ -7330,13 +7462,13 @@
         <v>9</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="213">
@@ -7353,13 +7485,13 @@
         <v>9</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="214">
@@ -7376,13 +7508,13 @@
         <v>9</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="215">
@@ -7399,13 +7531,13 @@
         <v>9</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="216">
@@ -7422,13 +7554,13 @@
         <v>9</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="217">
@@ -7445,13 +7577,13 @@
         <v>9</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="218">
@@ -7468,13 +7600,13 @@
         <v>9</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="219">
@@ -7491,13 +7623,13 @@
         <v>9</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="220">
@@ -7514,13 +7646,13 @@
         <v>9</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="221">
@@ -7537,13 +7669,13 @@
         <v>9</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="222">
@@ -7560,13 +7692,13 @@
         <v>9</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="223">
@@ -7583,13 +7715,13 @@
         <v>9</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="224">
@@ -7606,13 +7738,13 @@
         <v>9</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="225">
@@ -7629,13 +7761,13 @@
         <v>9</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="226">
@@ -7652,13 +7784,13 @@
         <v>9</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="227">
@@ -7675,13 +7807,13 @@
         <v>9</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="228">
@@ -7695,16 +7827,16 @@
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="229">
@@ -7712,22 +7844,22 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="230">
@@ -7735,22 +7867,22 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>9</v>
+        <v>480</v>
       </c>
       <c r="E230" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="231">
@@ -7764,13 +7896,13 @@
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="E231" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F231" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>485</v>
@@ -7781,19 +7913,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>486</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>487</v>
@@ -7804,19 +7936,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>488</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>489</v>
@@ -7833,16 +7965,16 @@
         <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="F234" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="235">
@@ -7856,16 +7988,16 @@
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E235" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="236">
@@ -7882,13 +8014,13 @@
         <v>9</v>
       </c>
       <c r="E236" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="237">
@@ -7905,13 +8037,13 @@
         <v>9</v>
       </c>
       <c r="E237" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="238">
@@ -7928,13 +8060,13 @@
         <v>9</v>
       </c>
       <c r="E238" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="239">
@@ -7951,13 +8083,13 @@
         <v>9</v>
       </c>
       <c r="E239" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="240">
@@ -7974,13 +8106,13 @@
         <v>9</v>
       </c>
       <c r="E240" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="241">
@@ -7997,13 +8129,13 @@
         <v>9</v>
       </c>
       <c r="E241" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="242">
@@ -8020,13 +8152,13 @@
         <v>9</v>
       </c>
       <c r="E242" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="243">
@@ -8043,13 +8175,13 @@
         <v>9</v>
       </c>
       <c r="E243" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="244">
@@ -8066,13 +8198,13 @@
         <v>9</v>
       </c>
       <c r="E244" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="245">
@@ -8089,13 +8221,13 @@
         <v>9</v>
       </c>
       <c r="E245" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="246">
@@ -8109,16 +8241,16 @@
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="E246" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="247">
@@ -8126,22 +8258,22 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="E247" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G247" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="248">
@@ -8155,16 +8287,16 @@
         <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="E248" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G248" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="249">
@@ -8178,16 +8310,16 @@
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="250">
@@ -8201,16 +8333,16 @@
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>525</v>
+        <v>9</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>527</v>
+        <v>11</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="251">
@@ -8224,16 +8356,16 @@
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>440</v>
+        <v>11</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="252">
@@ -8247,16 +8379,16 @@
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>440</v>
+        <v>11</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="253">
@@ -8264,22 +8396,22 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F253" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="G253" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="254">
@@ -8287,22 +8419,22 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>440</v>
+        <v>105</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="255">
@@ -8310,22 +8442,22 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E255" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="256">
@@ -8333,22 +8465,22 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="257">
@@ -8362,16 +8494,16 @@
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="258">
@@ -8385,16 +8517,16 @@
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>440</v>
+        <v>11</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="259">
@@ -8408,16 +8540,16 @@
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>440</v>
+        <v>11</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="260">
@@ -8434,13 +8566,13 @@
         <v>9</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="261">
@@ -8457,13 +8589,13 @@
         <v>9</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="262">
@@ -8477,16 +8609,16 @@
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>521</v>
+        <v>9</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>523</v>
+        <v>11</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="263">
@@ -8500,16 +8632,16 @@
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>521</v>
+        <v>9</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>523</v>
+        <v>11</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="264">
@@ -8523,16 +8655,16 @@
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="265">
@@ -8546,16 +8678,16 @@
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="266">
@@ -8569,16 +8701,16 @@
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="267">
@@ -8595,13 +8727,13 @@
         <v>9</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="268">
@@ -8609,22 +8741,22 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F268" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="G268" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="269">
@@ -8632,22 +8764,22 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>525</v>
+        <v>228</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>527</v>
+        <v>230</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="270">
@@ -8661,16 +8793,16 @@
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>521</v>
+        <v>53</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>523</v>
+        <v>55</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="271">
@@ -8678,19 +8810,19 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>57</v>
+        <v>565</v>
       </c>
       <c r="E271" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F271" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>568</v>
@@ -8707,16 +8839,16 @@
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>188</v>
+        <v>569</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>190</v>
+        <v>571</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="273">
@@ -8730,16 +8862,16 @@
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>11</v>
+        <v>484</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="274">
@@ -8753,16 +8885,16 @@
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>436</v>
+        <v>111</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>138</v>
+        <v>484</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="275">
@@ -8770,22 +8902,22 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>138</v>
+        <v>484</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="276">
@@ -8793,22 +8925,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>577</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>73</v>
+        <v>484</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="277">
@@ -8816,22 +8948,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F277" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G277" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="278">
@@ -8839,22 +8971,22 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>182</v>
+        <v>534</v>
       </c>
       <c r="E278" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G278" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="279">
@@ -8862,22 +8994,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E279" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="280">
@@ -8885,22 +9017,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E280" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G280" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="281">
@@ -8914,16 +9046,16 @@
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G281" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="282">
@@ -8931,22 +9063,22 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="283">
@@ -8960,16 +9092,16 @@
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>588</v>
+        <v>9</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>590</v>
+        <v>11</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="284">
@@ -8983,16 +9115,16 @@
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>65</v>
+        <v>565</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>440</v>
+        <v>567</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="285">
@@ -9000,22 +9132,22 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>65</v>
+        <v>565</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>440</v>
+        <v>567</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="286">
@@ -9023,22 +9155,22 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F286" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C286" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="G286" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="287">
@@ -9046,22 +9178,22 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F287" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="G287" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="288">
@@ -9075,16 +9207,16 @@
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>440</v>
+        <v>55</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="289">
@@ -9098,16 +9230,16 @@
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>440</v>
+        <v>11</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="290">
@@ -9115,22 +9247,22 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>440</v>
+        <v>184</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="291">
@@ -9144,16 +9276,16 @@
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>65</v>
+        <v>569</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>440</v>
+        <v>571</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="292">
@@ -9167,16 +9299,16 @@
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>65</v>
+        <v>565</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>440</v>
+        <v>567</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="293">
@@ -9184,22 +9316,22 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>440</v>
+        <v>230</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="294">
@@ -9213,16 +9345,16 @@
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>440</v>
+        <v>55</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="295">
@@ -9236,16 +9368,16 @@
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>618</v>
+        <v>9</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>620</v>
+        <v>11</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="296">
@@ -9259,16 +9391,16 @@
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G296" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="297">
@@ -9276,22 +9408,22 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>618</v>
+        <v>182</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F297" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G297" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="G297" s="2" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="298">
@@ -9305,16 +9437,16 @@
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>626</v>
+        <v>103</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>620</v>
+        <v>119</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="299">
@@ -9322,22 +9454,22 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>436</v>
+        <v>111</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="300">
@@ -9345,22 +9477,22 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="301">
@@ -9368,22 +9500,22 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>626</v>
+        <v>111</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>620</v>
+        <v>484</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="302">
@@ -9391,22 +9523,22 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>626</v>
+        <v>111</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>620</v>
+        <v>484</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="303">
@@ -9420,16 +9552,16 @@
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="E303" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="304">
@@ -9437,22 +9569,22 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="305">
@@ -9466,16 +9598,16 @@
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>65</v>
+        <v>632</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="306">
@@ -9489,16 +9621,16 @@
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>580</v>
+        <v>484</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="307">
@@ -9506,22 +9638,22 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>580</v>
+        <v>484</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="308">
@@ -9529,22 +9661,22 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>626</v>
+        <v>111</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>620</v>
+        <v>484</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="309">
@@ -9552,22 +9684,22 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>580</v>
+        <v>484</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="310">
@@ -9575,22 +9707,22 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>650</v>
+        <v>111</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>580</v>
+        <v>484</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="311">
@@ -9604,16 +9736,16 @@
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>580</v>
+        <v>484</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="312">
@@ -9621,22 +9753,22 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>436</v>
+        <v>111</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>580</v>
+        <v>484</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="313">
@@ -9650,16 +9782,16 @@
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>580</v>
+        <v>484</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="314">
@@ -9673,16 +9805,16 @@
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>436</v>
+        <v>111</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>660</v>
+        <v>484</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="315">
@@ -9696,16 +9828,16 @@
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>660</v>
+        <v>484</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="316">
@@ -9719,16 +9851,16 @@
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>650</v>
+        <v>111</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>580</v>
+        <v>484</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="317">
@@ -9736,22 +9868,22 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>65</v>
+        <v>662</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>580</v>
+        <v>664</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="318">
@@ -9765,16 +9897,16 @@
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>620</v>
+        <v>664</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="319">
@@ -9788,16 +9920,16 @@
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>620</v>
+        <v>664</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="320">
@@ -9811,16 +9943,522 @@
         <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="E320" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G320" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="F320" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="G320" s="2" t="s">
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>320</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E321" s="2" t="s">
         <v>673</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>321</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>322</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>323</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>324</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2">
+        <v>325</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2">
+        <v>326</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2">
+        <v>327</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>328</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>329</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2">
+        <v>330</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2">
+        <v>331</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2">
+        <v>332</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>333</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>334</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>335</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>336</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2">
+        <v>337</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2">
+        <v>338</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2">
+        <v>339</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2">
+        <v>340</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2">
+        <v>341</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>717</v>
       </c>
     </row>
   </sheetData>

--- a/data/Distributors.xlsx
+++ b/data/Distributors.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="820">
   <si>
     <t>STT</t>
   </si>
@@ -66,12 +66,342 @@
     <t>Dưa lưới</t>
   </si>
   <si>
+    <t>09/12/2025 12:00:20</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ BÍCH VÂN</t>
+  </si>
+  <si>
+    <t>09/12/2025 12:00:52</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:59:40</t>
+  </si>
+  <si>
+    <t>09/12/2025 12:00:07</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:59:07</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:59:35</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:58:28</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:58:59</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:58:04</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:58:25</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:57:42</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:58:01</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:57:09</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:57:38</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:56:18</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:56:45</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:55:50</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:56:15</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:55:21</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:55:47</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:54:43</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:55:16</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:53:47</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:54:24</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:53:08</t>
+  </si>
+  <si>
+    <t>09/12/2025 11:53:39</t>
+  </si>
+  <si>
+    <t>Phân Phối Sản phẩm nhập khẩu</t>
+  </si>
+  <si>
+    <t>Sản phẩm nhập khẩu</t>
+  </si>
+  <si>
+    <t>Nấm đùi gà</t>
+  </si>
+  <si>
+    <t>09/12/2025 08:36:17</t>
+  </si>
+  <si>
+    <t>Phạm Thị Ngọc Thúy</t>
+  </si>
+  <si>
+    <t>09/12/2025 08:36:44</t>
+  </si>
+  <si>
+    <t>09/12/2025 08:35:04</t>
+  </si>
+  <si>
+    <t>09/12/2025 08:36:09</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:49:46</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:50:16</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:49:08</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:49:34</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:48:41</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:49:03</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:48:09</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:48:38</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:47:43</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:48:05</t>
+  </si>
+  <si>
+    <t>08/12/2025 11:53:27</t>
+  </si>
+  <si>
+    <t>08/12/2025 11:54:01</t>
+  </si>
+  <si>
+    <t>08/12/2025 11:53:01</t>
+  </si>
+  <si>
+    <t>08/12/2025 11:53:25</t>
+  </si>
+  <si>
+    <t>08/12/2025 11:52:30</t>
+  </si>
+  <si>
+    <t>08/12/2025 11:52:52</t>
+  </si>
+  <si>
+    <t>08/12/2025 11:51:37</t>
+  </si>
+  <si>
+    <t>08/12/2025 11:51:58</t>
+  </si>
+  <si>
+    <t>08/12/2025 11:50:59</t>
+  </si>
+  <si>
+    <t>08/12/2025 11:51:27</t>
+  </si>
+  <si>
+    <t>08/12/2025 11:50:29</t>
+  </si>
+  <si>
+    <t>08/12/2025 11:50:53</t>
+  </si>
+  <si>
+    <t>Bắp cải trắng</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:28:31</t>
+  </si>
+  <si>
+    <t>NGUYỄN THÀNH LONG</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:29:45</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:28:02</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:28:29</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:27:20</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:28:00</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:26:46</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:27:14</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:26:14</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:26:38</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:25:45</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:26:08</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:56:27</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:57:00</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:55:57</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:56:24</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:55:31</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:55:53</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:54:53</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:55:20</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:54:17</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:54:50</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:53:48</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:54:15</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:53:21</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:53:43</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:52:49</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:53:15</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:40:50</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:41:10</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:40:12</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:40:40</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:38:51</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:39:22</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:38:24</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:38:48</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:37:59</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:38:22</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:37:14</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:37:36</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:36:35</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:37:02</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:36:08</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:36:30</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:35:32</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:36:04</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:35:02</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:35:25</t>
+  </si>
+  <si>
+    <t>Xoài Cát</t>
+  </si>
+  <si>
+    <t>08/12/2025 06:06:00</t>
+  </si>
+  <si>
+    <t>TĂNG CẨM HẰNG</t>
+  </si>
+  <si>
+    <t>08/12/2025 06:07:09</t>
+  </si>
+  <si>
     <t>07/12/2025 09:06:45</t>
   </si>
   <si>
-    <t>NGUYỄN THỊ BÍCH VÂN</t>
-  </si>
-  <si>
     <t>07/12/2025 09:07:08</t>
   </si>
   <si>
@@ -195,15 +525,9 @@
     <t>07/12/2025 08:55:09</t>
   </si>
   <si>
-    <t>Xoài Cát</t>
-  </si>
-  <si>
     <t>07/12/2025 06:18:19</t>
   </si>
   <si>
-    <t>TĂNG CẨM HẰNG</t>
-  </si>
-  <si>
     <t>07/12/2025 06:19:27</t>
   </si>
   <si>
@@ -339,15 +663,6 @@
     <t>06/12/2025 09:44:18</t>
   </si>
   <si>
-    <t>Phân Phối Sản phẩm nhập khẩu</t>
-  </si>
-  <si>
-    <t>Sản phẩm nhập khẩu</t>
-  </si>
-  <si>
-    <t>Nấm đùi gà</t>
-  </si>
-  <si>
     <t>06/12/2025 05:34:15</t>
   </si>
   <si>
@@ -528,15 +843,9 @@
     <t>05/12/2025 07:33:03</t>
   </si>
   <si>
-    <t>Bắp cải trắng</t>
-  </si>
-  <si>
     <t>05/12/2025 06:07:47</t>
   </si>
   <si>
-    <t>NGUYỄN THÀNH LONG</t>
-  </si>
-  <si>
     <t>05/12/2025 06:08:14</t>
   </si>
   <si>
@@ -724,9 +1033,6 @@
   </si>
   <si>
     <t>04/12/2025 05:50:54</t>
-  </si>
-  <si>
-    <t>Phạm Thị Ngọc Thúy</t>
   </si>
   <si>
     <t>04/12/2025 05:51:15</t>
@@ -2579,7 +2885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC4A16B-8FA1-4B04-953E-5E0AA1B9EFD4}">
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -2922,22 +3228,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -2945,22 +3251,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -2977,13 +3283,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -3000,13 +3306,13 @@
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -3023,13 +3329,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -3046,13 +3352,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -3069,13 +3375,13 @@
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -3092,13 +3398,13 @@
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
@@ -3112,16 +3418,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
@@ -3138,13 +3444,13 @@
         <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -3161,13 +3467,13 @@
         <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -3184,13 +3490,13 @@
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
@@ -3207,13 +3513,13 @@
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -3227,16 +3533,16 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -3250,16 +3556,16 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
@@ -3273,16 +3579,16 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -3296,16 +3602,16 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -3319,16 +3625,16 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -3342,16 +3648,16 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -3368,13 +3674,13 @@
         <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -3391,13 +3697,13 @@
         <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
@@ -3414,13 +3720,13 @@
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -3437,13 +3743,13 @@
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -3460,13 +3766,13 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -3483,13 +3789,13 @@
         <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
@@ -3506,13 +3812,13 @@
         <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
@@ -3529,13 +3835,13 @@
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -3552,13 +3858,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -3575,13 +3881,13 @@
         <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -3598,13 +3904,13 @@
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
@@ -3621,13 +3927,13 @@
         <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
@@ -3635,19 +3941,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>106</v>
@@ -3658,19 +3964,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>108</v>
@@ -3681,19 +3987,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>110</v>
@@ -3704,22 +4010,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="50">
@@ -3727,22 +4033,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="51">
@@ -3750,22 +4056,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="52">
@@ -3773,13 +4079,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -3966,13 +4272,13 @@
         <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -3989,13 +4295,13 @@
         <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62">
@@ -4012,13 +4318,13 @@
         <v>9</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -4035,13 +4341,13 @@
         <v>9</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64">
@@ -4058,13 +4364,13 @@
         <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65">
@@ -4081,13 +4387,13 @@
         <v>9</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66">
@@ -4104,13 +4410,13 @@
         <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67">
@@ -4127,13 +4433,13 @@
         <v>9</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
@@ -4150,13 +4456,13 @@
         <v>9</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69">
@@ -4173,13 +4479,13 @@
         <v>9</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70">
@@ -4196,13 +4502,13 @@
         <v>9</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71">
@@ -4219,13 +4525,13 @@
         <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72">
@@ -4242,13 +4548,13 @@
         <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73">
@@ -4265,13 +4571,13 @@
         <v>9</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74">
@@ -4285,16 +4591,16 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75">
@@ -4308,16 +4614,16 @@
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="76">
@@ -4331,16 +4637,16 @@
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="77">
@@ -4354,16 +4660,16 @@
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="78">
@@ -4377,16 +4683,16 @@
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="79">
@@ -4394,22 +4700,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="80">
@@ -4417,22 +4723,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="81">
@@ -4440,22 +4746,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="82">
@@ -4463,22 +4769,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="83">
@@ -4486,22 +4792,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="84">
@@ -4515,16 +4821,16 @@
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85">
@@ -4541,13 +4847,13 @@
         <v>9</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86">
@@ -4564,13 +4870,13 @@
         <v>9</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87">
@@ -4587,13 +4893,13 @@
         <v>9</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88">
@@ -4610,13 +4916,13 @@
         <v>9</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89">
@@ -4633,13 +4939,13 @@
         <v>9</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90">
@@ -4656,13 +4962,13 @@
         <v>9</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
@@ -4679,13 +4985,13 @@
         <v>9</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92">
@@ -4702,13 +5008,13 @@
         <v>9</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
@@ -4725,13 +5031,13 @@
         <v>9</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94">
@@ -4748,13 +5054,13 @@
         <v>9</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95">
@@ -4771,13 +5077,13 @@
         <v>9</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
@@ -4794,13 +5100,13 @@
         <v>9</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
@@ -4808,22 +5114,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98">
@@ -4831,22 +5137,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99">
@@ -4854,22 +5160,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100">
@@ -4877,22 +5183,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="101">
@@ -4900,22 +5206,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="102">
@@ -4923,22 +5229,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="103">
@@ -4946,19 +5252,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>225</v>
@@ -4992,22 +5298,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="106">
@@ -5015,22 +5321,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107">
@@ -5044,16 +5350,16 @@
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108">
@@ -5061,22 +5367,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109">
@@ -5084,22 +5390,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110">
@@ -5107,22 +5413,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111">
@@ -5130,22 +5436,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112">
@@ -5162,13 +5468,13 @@
         <v>9</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113">
@@ -5185,13 +5491,13 @@
         <v>9</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114">
@@ -5208,13 +5514,13 @@
         <v>9</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115">
@@ -5231,13 +5537,13 @@
         <v>9</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116">
@@ -5254,13 +5560,13 @@
         <v>9</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117">
@@ -5274,16 +5580,16 @@
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118">
@@ -5300,13 +5606,13 @@
         <v>9</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119">
@@ -5323,13 +5629,13 @@
         <v>9</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120">
@@ -5346,13 +5652,13 @@
         <v>9</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121">
@@ -5369,13 +5675,13 @@
         <v>9</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122">
@@ -5392,13 +5698,13 @@
         <v>9</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123">
@@ -5415,13 +5721,13 @@
         <v>9</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124">
@@ -5438,13 +5744,13 @@
         <v>9</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125">
@@ -5461,13 +5767,13 @@
         <v>9</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126">
@@ -5481,16 +5787,16 @@
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127">
@@ -5504,16 +5810,16 @@
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128">
@@ -5527,16 +5833,16 @@
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129">
@@ -5550,16 +5856,16 @@
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130">
@@ -5567,22 +5873,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="131">
@@ -5590,22 +5896,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132">
@@ -5613,22 +5919,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133">
@@ -5636,22 +5942,22 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134">
@@ -5659,22 +5965,22 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="E134" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="135">
@@ -5682,22 +5988,22 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="136">
@@ -5705,22 +6011,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E136" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="137">
@@ -5728,22 +6034,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E137" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="138">
@@ -5760,13 +6066,13 @@
         <v>9</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="139">
@@ -5783,13 +6089,13 @@
         <v>9</v>
       </c>
       <c r="E139" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="140">
@@ -5806,13 +6112,13 @@
         <v>9</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="141">
@@ -5829,13 +6135,13 @@
         <v>9</v>
       </c>
       <c r="E141" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="142">
@@ -5852,13 +6158,13 @@
         <v>9</v>
       </c>
       <c r="E142" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="143">
@@ -5875,13 +6181,13 @@
         <v>9</v>
       </c>
       <c r="E143" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="144">
@@ -5898,13 +6204,13 @@
         <v>9</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="145">
@@ -5921,13 +6227,13 @@
         <v>9</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="146">
@@ -5944,13 +6250,13 @@
         <v>9</v>
       </c>
       <c r="E146" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="147">
@@ -5958,22 +6264,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E147" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="148">
@@ -5990,13 +6296,13 @@
         <v>9</v>
       </c>
       <c r="E148" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="149">
@@ -6013,13 +6319,13 @@
         <v>9</v>
       </c>
       <c r="E149" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="150">
@@ -6036,13 +6342,13 @@
         <v>9</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="151">
@@ -6059,13 +6365,13 @@
         <v>9</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="152">
@@ -6082,13 +6388,13 @@
         <v>9</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="153">
@@ -6105,13 +6411,13 @@
         <v>9</v>
       </c>
       <c r="E153" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="154">
@@ -6119,22 +6425,22 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="155">
@@ -6142,22 +6448,22 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E155" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="156">
@@ -6165,19 +6471,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>332</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>333</v>
@@ -6188,19 +6494,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>334</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>335</v>
@@ -6211,19 +6517,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>336</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>337</v>
@@ -6234,19 +6540,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>339</v>
@@ -6257,19 +6563,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>340</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>341</v>
@@ -6280,19 +6586,19 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>342</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>343</v>
@@ -6303,19 +6609,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>344</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>345</v>
@@ -6447,13 +6753,13 @@
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>356</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>357</v>
@@ -6533,19 +6839,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>364</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>365</v>
@@ -6556,19 +6862,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>366</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>367</v>
@@ -6579,19 +6885,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>368</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>369</v>
@@ -6602,19 +6908,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>370</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>371</v>
@@ -6625,19 +6931,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>372</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>373</v>
@@ -6648,19 +6954,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>374</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>375</v>
@@ -6671,19 +6977,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>376</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>377</v>
@@ -6694,19 +7000,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>378</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>379</v>
@@ -6717,19 +7023,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>380</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>381</v>
@@ -6746,13 +7052,13 @@
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>382</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>383</v>
@@ -6763,19 +7069,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>384</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>385</v>
@@ -6786,19 +7092,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>387</v>
@@ -6809,19 +7115,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>388</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>389</v>
@@ -6832,19 +7138,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>390</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>391</v>
@@ -6855,19 +7161,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>393</v>
@@ -6878,19 +7184,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>394</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>395</v>
@@ -6901,19 +7207,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>396</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>397</v>
@@ -7039,19 +7345,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>408</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>409</v>
@@ -7062,19 +7368,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>410</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>411</v>
@@ -7085,19 +7391,19 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>412</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>413</v>
@@ -7108,19 +7414,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>414</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>415</v>
@@ -7131,19 +7437,19 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>416</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>417</v>
@@ -7160,13 +7466,13 @@
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>418</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>419</v>
@@ -7183,13 +7489,13 @@
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>420</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>421</v>
@@ -7200,19 +7506,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>422</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>423</v>
@@ -7223,19 +7529,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>424</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>425</v>
@@ -7246,19 +7552,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>426</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>427</v>
@@ -7292,19 +7598,19 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>430</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>431</v>
@@ -7315,19 +7621,19 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>432</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>433</v>
@@ -7338,19 +7644,19 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>434</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>435</v>
@@ -7367,13 +7673,13 @@
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>436</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>437</v>
@@ -7384,19 +7690,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>438</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>439</v>
@@ -7413,13 +7719,13 @@
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>440</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>441</v>
@@ -7430,19 +7736,19 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>442</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>443</v>
@@ -7459,13 +7765,13 @@
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>444</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>445</v>
@@ -7706,19 +8012,19 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>9</v>
+        <v>331</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>466</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>467</v>
@@ -7729,19 +8035,19 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>468</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>469</v>
@@ -7752,19 +8058,19 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>470</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>471</v>
@@ -7775,19 +8081,19 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>473</v>
@@ -7798,19 +8104,19 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>474</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>475</v>
@@ -7821,19 +8127,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>476</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>477</v>
@@ -7844,19 +8150,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>478</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>479</v>
@@ -7867,22 +8173,22 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D230" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="F230" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="231">
@@ -7890,22 +8196,22 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="E231" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="232">
@@ -7913,22 +8219,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="233">
@@ -7936,22 +8242,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="234">
@@ -7959,22 +8265,22 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="235">
@@ -7982,22 +8288,22 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="236">
@@ -8014,13 +8320,13 @@
         <v>9</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="237">
@@ -8037,13 +8343,13 @@
         <v>9</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="238">
@@ -8060,13 +8366,13 @@
         <v>9</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="239">
@@ -8083,13 +8389,13 @@
         <v>9</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="240">
@@ -8106,13 +8412,13 @@
         <v>9</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="241">
@@ -8129,13 +8435,13 @@
         <v>9</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="242">
@@ -8152,13 +8458,13 @@
         <v>9</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="243">
@@ -8175,13 +8481,13 @@
         <v>9</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="244">
@@ -8198,13 +8504,13 @@
         <v>9</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="245">
@@ -8212,22 +8518,22 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="246">
@@ -8235,22 +8541,22 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="247">
@@ -8258,22 +8564,22 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="248">
@@ -8281,22 +8587,22 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="249">
@@ -8310,16 +8616,16 @@
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="250">
@@ -8333,16 +8639,16 @@
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="251">
@@ -8356,16 +8662,16 @@
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="252">
@@ -8373,22 +8679,22 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="253">
@@ -8396,22 +8702,22 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="254">
@@ -8419,22 +8725,22 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="255">
@@ -8442,22 +8748,22 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="256">
@@ -8471,16 +8777,16 @@
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>534</v>
+        <v>9</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="257">
@@ -8494,16 +8800,16 @@
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="258">
@@ -8520,13 +8826,13 @@
         <v>9</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="259">
@@ -8543,13 +8849,13 @@
         <v>9</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="260">
@@ -8566,13 +8872,13 @@
         <v>9</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="261">
@@ -8589,13 +8895,13 @@
         <v>9</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="262">
@@ -8612,13 +8918,13 @@
         <v>9</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="263">
@@ -8635,13 +8941,13 @@
         <v>9</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="264">
@@ -8658,13 +8964,13 @@
         <v>9</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="265">
@@ -8681,13 +8987,13 @@
         <v>9</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="266">
@@ -8704,13 +9010,13 @@
         <v>9</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267">
@@ -8727,13 +9033,13 @@
         <v>9</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="268">
@@ -8747,16 +9053,16 @@
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="269">
@@ -8764,22 +9070,22 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="270">
@@ -8793,16 +9099,16 @@
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="271">
@@ -8816,16 +9122,16 @@
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>565</v>
+        <v>9</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>567</v>
+        <v>11</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="272">
@@ -8839,16 +9145,16 @@
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>569</v>
+        <v>9</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>571</v>
+        <v>11</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="273">
@@ -8862,16 +9168,16 @@
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="274">
@@ -8885,16 +9191,16 @@
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="275">
@@ -8902,22 +9208,22 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276">
@@ -8925,22 +9231,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="277">
@@ -8948,22 +9254,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="278">
@@ -8971,22 +9277,22 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>534</v>
+        <v>9</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="279">
@@ -9000,16 +9306,16 @@
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>484</v>
+        <v>119</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280">
@@ -9017,22 +9323,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>484</v>
+        <v>41</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281">
@@ -9040,22 +9346,22 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>111</v>
+        <v>582</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>484</v>
+        <v>287</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="282">
@@ -9069,16 +9375,16 @@
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>11</v>
+        <v>586</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="283">
@@ -9086,22 +9392,22 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>9</v>
+        <v>331</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="284">
@@ -9115,16 +9421,16 @@
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>565</v>
+        <v>9</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>567</v>
+        <v>11</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="285">
@@ -9138,16 +9444,16 @@
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>565</v>
+        <v>9</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>567</v>
+        <v>11</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="286">
@@ -9161,16 +9467,16 @@
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="287">
@@ -9184,16 +9490,16 @@
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="288">
@@ -9207,16 +9513,16 @@
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="289">
@@ -9233,13 +9539,13 @@
         <v>9</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="290">
@@ -9247,22 +9553,22 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="291">
@@ -9276,16 +9582,16 @@
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>569</v>
+        <v>9</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>571</v>
+        <v>11</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="292">
@@ -9299,16 +9605,16 @@
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>565</v>
+        <v>9</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>567</v>
+        <v>11</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="293">
@@ -9316,22 +9622,22 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="294">
@@ -9345,16 +9651,16 @@
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="295">
@@ -9371,13 +9677,13 @@
         <v>9</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="296">
@@ -9391,16 +9697,16 @@
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>480</v>
+        <v>9</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="297">
@@ -9408,22 +9714,22 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="298">
@@ -9437,16 +9743,16 @@
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="299">
@@ -9454,22 +9760,22 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>624</v>
+        <v>11</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="300">
@@ -9477,22 +9783,22 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="301">
@@ -9500,22 +9806,22 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="302">
@@ -9523,22 +9829,22 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="303">
@@ -9552,16 +9858,16 @@
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>632</v>
+        <v>9</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>634</v>
+        <v>11</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="304">
@@ -9569,22 +9875,22 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="305">
@@ -9592,22 +9898,22 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D305" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E305" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E305" s="2" t="s">
-        <v>638</v>
-      </c>
       <c r="F305" s="2" t="s">
-        <v>634</v>
+        <v>210</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="306">
@@ -9615,22 +9921,22 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>484</v>
+        <v>210</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="307">
@@ -9638,22 +9944,22 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>111</v>
+        <v>636</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>484</v>
+        <v>586</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="308">
@@ -9661,22 +9967,22 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>484</v>
+        <v>586</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="309">
@@ -9684,22 +9990,22 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="310">
@@ -9713,16 +10019,16 @@
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="311">
@@ -9736,16 +10042,16 @@
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="312">
@@ -9759,16 +10065,16 @@
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="313">
@@ -9782,16 +10088,16 @@
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="314">
@@ -9805,16 +10111,16 @@
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="315">
@@ -9828,16 +10134,16 @@
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="316">
@@ -9851,16 +10157,16 @@
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>484</v>
+        <v>11</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="317">
@@ -9874,16 +10180,16 @@
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>662</v>
+        <v>9</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>664</v>
+        <v>11</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="318">
@@ -9897,16 +10203,16 @@
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>662</v>
+        <v>9</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>664</v>
+        <v>11</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="319">
@@ -9920,16 +10226,16 @@
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G319" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="320">
@@ -9937,22 +10243,22 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>670</v>
+        <v>331</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F320" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G320" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="G320" s="2" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="321">
@@ -9966,16 +10272,16 @@
         <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>480</v>
+        <v>117</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>664</v>
+        <v>119</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="322">
@@ -9989,16 +10295,16 @@
         <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>111</v>
+        <v>667</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="323">
@@ -10012,16 +10318,16 @@
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="324">
@@ -10035,16 +10341,16 @@
         <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>670</v>
+        <v>216</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>664</v>
+        <v>586</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="325">
@@ -10058,16 +10364,16 @@
         <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>670</v>
+        <v>216</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>664</v>
+        <v>586</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="326">
@@ -10075,22 +10381,22 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="327">
@@ -10098,22 +10404,22 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="328">
@@ -10121,22 +10427,22 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="329">
@@ -10144,22 +10450,22 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>111</v>
+        <v>636</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="330">
@@ -10173,16 +10479,16 @@
         <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>670</v>
+        <v>216</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>664</v>
+        <v>586</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="331">
@@ -10196,16 +10502,16 @@
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="332">
@@ -10213,22 +10519,22 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>694</v>
+        <v>216</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="333">
@@ -10242,16 +10548,16 @@
         <v>8</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>624</v>
+        <v>11</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="334">
@@ -10259,22 +10565,22 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>480</v>
+        <v>9</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>624</v>
+        <v>11</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="335">
@@ -10288,16 +10594,16 @@
         <v>8</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>111</v>
+        <v>667</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="336">
@@ -10311,16 +10617,16 @@
         <v>8</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>480</v>
+        <v>667</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>704</v>
+        <v>669</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="337">
@@ -10334,16 +10640,16 @@
         <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>704</v>
+        <v>119</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="338">
@@ -10357,16 +10663,16 @@
         <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>694</v>
+        <v>117</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>624</v>
+        <v>119</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="339">
@@ -10374,22 +10680,22 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>624</v>
+        <v>119</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="340">
@@ -10403,16 +10709,16 @@
         <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>670</v>
+        <v>9</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>664</v>
+        <v>11</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="341">
@@ -10420,22 +10726,22 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>670</v>
+        <v>285</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>664</v>
+        <v>287</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="342">
@@ -10449,16 +10755,1189 @@
         <v>8</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E342" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2">
+        <v>342</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2">
+        <v>343</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2">
+        <v>344</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G345" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="F342" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="G342" s="2" t="s">
+    </row>
+    <row r="346">
+      <c r="A346" s="2">
+        <v>345</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E346" s="2" t="s">
         <v>717</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2">
+        <v>346</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2">
+        <v>347</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2">
+        <v>348</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2">
+        <v>349</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2">
+        <v>350</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2">
+        <v>351</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2">
+        <v>352</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2">
+        <v>353</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2">
+        <v>354</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2">
+        <v>355</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2">
+        <v>356</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2">
+        <v>357</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2">
+        <v>358</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2">
+        <v>359</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G360" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2">
+        <v>360</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2">
+        <v>361</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2">
+        <v>362</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2">
+        <v>363</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2">
+        <v>364</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2">
+        <v>365</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2">
+        <v>366</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2">
+        <v>367</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2">
+        <v>368</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2">
+        <v>369</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2">
+        <v>370</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G371" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2">
+        <v>371</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2">
+        <v>372</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2">
+        <v>373</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2">
+        <v>374</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G375" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2">
+        <v>375</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2">
+        <v>376</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G377" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2">
+        <v>377</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2">
+        <v>378</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G379" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2">
+        <v>379</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2">
+        <v>380</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G381" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2">
+        <v>381</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G382" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2">
+        <v>382</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2">
+        <v>383</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G384" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2">
+        <v>384</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2">
+        <v>385</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2">
+        <v>386</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="G387" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2">
+        <v>387</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2">
+        <v>388</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2">
+        <v>389</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2">
+        <v>390</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2">
+        <v>391</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2">
+        <v>392</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>819</v>
       </c>
     </row>
   </sheetData>
